--- a/enmexcelparser/src/test/resources/net/enanomapper/parser/testExcelParser/testfile3.xlsx
+++ b/enmexcelparser/src/test/resources/net/enanomapper/parser/testExcelParser/testfile3.xlsx
@@ -856,7 +856,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
